--- a/平时花费/3月花费账单.xlsx
+++ b/平时花费/3月花费账单.xlsx
@@ -813,7 +813,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1024,10 +1024,16 @@
       <c r="E7" s="1">
         <v>15</v>
       </c>
+      <c r="F7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>24</v>
+      </c>
       <c r="N7" s="14"/>
       <c r="O7" s="16">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>50.5</v>
       </c>
       <c r="P7" s="5"/>
     </row>
@@ -1038,10 +1044,19 @@
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14</v>
+      </c>
       <c r="N8" s="14"/>
       <c r="O8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P8" s="5"/>
     </row>
@@ -1454,23 +1469,23 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20">
         <f>SUM(C2:C32)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D33" s="20">
         <f>SUM(D2:D32)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33" s="20">
         <f>SUM(E2:E32)</f>
-        <v>90.5</v>
+        <v>104.5</v>
       </c>
       <c r="F33" s="20">
         <f>SUM(F2:F32)</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="G33" s="20">
         <f t="shared" ref="G33:N33" si="1">SUM(G2:G32)</f>
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" si="1"/>
@@ -1502,7 +1517,7 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" si="0"/>
-        <v>4122.5</v>
+        <v>4169</v>
       </c>
       <c r="P33" s="5"/>
     </row>
@@ -1525,7 +1540,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3">
         <f>O33-2200</f>
-        <v>1922.5</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
@@ -1534,7 +1549,7 @@
       </c>
       <c r="O35" s="1">
         <f>O34-550</f>
-        <v>1372.5</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -1543,7 +1558,7 @@
       </c>
       <c r="O36" s="1">
         <f>O35-1100</f>
-        <v>272.5</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/3月花费账单.xlsx
+++ b/平时花费/3月花费账单.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L5" authorId="0">
+    <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -565,7 +565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,9 +598,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,6 +650,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -813,22 +847,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -875,7 +909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>41334</v>
       </c>
@@ -904,7 +938,7 @@
       </c>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>41335</v>
       </c>
@@ -933,7 +967,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>41336</v>
       </c>
@@ -959,7 +993,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>41337</v>
       </c>
@@ -991,7 +1025,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>41338</v>
       </c>
@@ -1008,7 +1042,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>41339</v>
       </c>
@@ -1037,7 +1071,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>41340</v>
       </c>
@@ -1053,14 +1087,20 @@
       <c r="E8" s="1">
         <v>14</v>
       </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
       <c r="N8" s="14"/>
       <c r="O8" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>41341</v>
       </c>
@@ -1074,7 +1114,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>41342</v>
       </c>
@@ -1088,7 +1128,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>41343</v>
       </c>
@@ -1102,7 +1142,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>41344</v>
       </c>
@@ -1116,7 +1156,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>41345</v>
       </c>
@@ -1130,7 +1170,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>41346</v>
       </c>
@@ -1144,7 +1184,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>41347</v>
       </c>
@@ -1158,7 +1198,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>41348</v>
       </c>
@@ -1172,7 +1212,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>41349</v>
       </c>
@@ -1186,7 +1226,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>41350</v>
       </c>
@@ -1200,7 +1240,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>41351</v>
       </c>
@@ -1214,7 +1254,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>41352</v>
       </c>
@@ -1228,7 +1268,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>41353</v>
       </c>
@@ -1242,7 +1282,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>41354</v>
       </c>
@@ -1256,7 +1296,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>41355</v>
       </c>
@@ -1270,7 +1310,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>41356</v>
       </c>
@@ -1284,7 +1324,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>41357</v>
       </c>
@@ -1298,7 +1338,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>41358</v>
       </c>
@@ -1312,7 +1352,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>41359</v>
       </c>
@@ -1337,7 +1377,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>41360</v>
       </c>
@@ -1362,7 +1402,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>41361</v>
       </c>
@@ -1387,7 +1427,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>41362</v>
       </c>
@@ -1412,7 +1452,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>41363</v>
       </c>
@@ -1437,7 +1477,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>41364</v>
       </c>
@@ -1462,7 +1502,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>20</v>
       </c>
@@ -1481,11 +1521,11 @@
       </c>
       <c r="F33" s="20">
         <f>SUM(F2:F32)</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="G33" s="20">
         <f t="shared" ref="G33:N33" si="1">SUM(G2:G32)</f>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" si="1"/>
@@ -1517,11 +1557,11 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" si="0"/>
-        <v>4169</v>
+        <v>4182</v>
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -1540,25 +1580,25 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3">
         <f>O33-2200</f>
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O35" s="1">
         <f>O34-550</f>
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="1">
         <f>O35-1100</f>
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/3月花费账单.xlsx
+++ b/平时花费/3月花费账单.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -565,7 +565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,26 +598,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,23 +633,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -847,22 +813,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -909,7 +875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>41334</v>
       </c>
@@ -938,7 +904,7 @@
       </c>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>41335</v>
       </c>
@@ -967,7 +933,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>41336</v>
       </c>
@@ -993,7 +959,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>41337</v>
       </c>
@@ -1025,7 +991,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>41338</v>
       </c>
@@ -1042,7 +1008,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>41339</v>
       </c>
@@ -1071,7 +1037,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>41340</v>
       </c>
@@ -1100,21 +1066,30 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>41341</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
       <c r="N9" s="14"/>
       <c r="O9" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>41342</v>
       </c>
@@ -1128,7 +1103,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>41343</v>
       </c>
@@ -1142,7 +1117,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>41344</v>
       </c>
@@ -1156,7 +1131,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>41345</v>
       </c>
@@ -1170,7 +1145,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>41346</v>
       </c>
@@ -1184,7 +1159,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>41347</v>
       </c>
@@ -1198,7 +1173,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>41348</v>
       </c>
@@ -1212,7 +1187,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>41349</v>
       </c>
@@ -1226,7 +1201,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>41350</v>
       </c>
@@ -1240,7 +1215,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>41351</v>
       </c>
@@ -1254,7 +1229,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>41352</v>
       </c>
@@ -1268,7 +1243,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>41353</v>
       </c>
@@ -1282,7 +1257,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>41354</v>
       </c>
@@ -1296,7 +1271,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>41355</v>
       </c>
@@ -1310,7 +1285,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>41356</v>
       </c>
@@ -1324,7 +1299,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>41357</v>
       </c>
@@ -1338,7 +1313,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>41358</v>
       </c>
@@ -1352,7 +1327,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>41359</v>
       </c>
@@ -1377,7 +1352,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>41360</v>
       </c>
@@ -1402,7 +1377,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>41361</v>
       </c>
@@ -1427,7 +1402,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>41362</v>
       </c>
@@ -1452,7 +1427,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>41363</v>
       </c>
@@ -1477,7 +1452,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>41364</v>
       </c>
@@ -1502,22 +1477,22 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20">
         <f>SUM(C2:C32)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D33" s="20">
         <f>SUM(D2:D32)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E33" s="20">
         <f>SUM(E2:E32)</f>
-        <v>104.5</v>
+        <v>124.5</v>
       </c>
       <c r="F33" s="20">
         <f>SUM(F2:F32)</f>
@@ -1557,11 +1532,11 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" si="0"/>
-        <v>4182</v>
+        <v>4211</v>
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -1580,25 +1555,25 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3">
         <f>O33-2200</f>
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O35" s="1">
         <f>O34-550</f>
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="1">
         <f>O35-1100</f>
-        <v>332</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/3月花费账单.xlsx
+++ b/平时花费/3月花费账单.xlsx
@@ -813,7 +813,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1082,10 +1082,13 @@
       <c r="E9" s="1">
         <v>20</v>
       </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
       <c r="N9" s="14"/>
       <c r="O9" s="16">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P9" s="5"/>
     </row>
@@ -1096,10 +1099,25 @@
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="P10" s="5"/>
     </row>
@@ -1110,10 +1128,19 @@
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.66</v>
       </c>
       <c r="P11" s="5"/>
     </row>
@@ -1484,23 +1511,23 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20">
         <f>SUM(C2:C32)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D33" s="20">
         <f>SUM(D2:D32)</f>
-        <v>17</v>
+        <v>25.16</v>
       </c>
       <c r="E33" s="20">
         <f>SUM(E2:E32)</f>
-        <v>124.5</v>
+        <v>160.5</v>
       </c>
       <c r="F33" s="20">
         <f>SUM(F2:F32)</f>
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="G33" s="20">
         <f t="shared" ref="G33:N33" si="1">SUM(G2:G32)</f>
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" si="1"/>
@@ -1532,7 +1559,7 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" si="0"/>
-        <v>4211</v>
+        <v>4275.16</v>
       </c>
       <c r="P33" s="5"/>
     </row>
@@ -1555,7 +1582,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3">
         <f>O33-2200</f>
-        <v>2011</v>
+        <v>2075.16</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
@@ -1564,7 +1591,7 @@
       </c>
       <c r="O35" s="1">
         <f>O34-550</f>
-        <v>1461</v>
+        <v>1525.1599999999999</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -1573,7 +1600,7 @@
       </c>
       <c r="O36" s="1">
         <f>O35-1100</f>
-        <v>361</v>
+        <v>425.15999999999985</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/3月花费账单.xlsx
+++ b/平时花费/3月花费账单.xlsx
@@ -33,6 +33,21 @@
           <t>2200押金
 1100房租
 550中介费</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>桌子椅子</t>
         </r>
       </text>
     </comment>
@@ -813,7 +828,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1137,10 +1152,19 @@
       <c r="E11" s="1">
         <v>14</v>
       </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="16">
         <f t="shared" si="0"/>
-        <v>19.66</v>
+        <v>38.659999999999997</v>
       </c>
       <c r="P11" s="5"/>
     </row>
@@ -1151,10 +1175,22 @@
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>16</v>
+      </c>
       <c r="N12" s="14"/>
       <c r="O12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="P12" s="5"/>
     </row>
@@ -1165,10 +1201,16 @@
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>548</v>
+      </c>
       <c r="N13" s="14"/>
       <c r="O13" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="P13" s="5"/>
     </row>
@@ -1179,10 +1221,16 @@
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
       <c r="N14" s="14"/>
       <c r="O14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P14" s="5"/>
     </row>
@@ -1511,23 +1559,23 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20">
         <f>SUM(C2:C32)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D33" s="20">
         <f>SUM(D2:D32)</f>
-        <v>25.16</v>
+        <v>28.16</v>
       </c>
       <c r="E33" s="20">
         <f>SUM(E2:E32)</f>
-        <v>160.5</v>
+        <v>170.5</v>
       </c>
       <c r="F33" s="20">
         <f>SUM(F2:F32)</f>
-        <v>17.5</v>
+        <v>24.5</v>
       </c>
       <c r="G33" s="20">
         <f t="shared" ref="G33:N33" si="1">SUM(G2:G32)</f>
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" si="1"/>
@@ -1535,7 +1583,7 @@
       </c>
       <c r="I33" s="20">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J33" s="20">
         <f t="shared" si="1"/>
@@ -1543,7 +1591,7 @@
       </c>
       <c r="K33" s="20">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>598</v>
       </c>
       <c r="L33" s="20">
         <f t="shared" si="1"/>
@@ -1559,7 +1607,7 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" si="0"/>
-        <v>4275.16</v>
+        <v>4894.16</v>
       </c>
       <c r="P33" s="5"/>
     </row>
@@ -1582,7 +1630,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3">
         <f>O33-2200</f>
-        <v>2075.16</v>
+        <v>2694.16</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
@@ -1591,7 +1639,7 @@
       </c>
       <c r="O35" s="1">
         <f>O34-550</f>
-        <v>1525.1599999999999</v>
+        <v>2144.16</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -1600,7 +1648,7 @@
       </c>
       <c r="O36" s="1">
         <f>O35-1100</f>
-        <v>425.15999999999985</v>
+        <v>1044.1599999999999</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/3月花费账单.xlsx
+++ b/平时花费/3月花费账单.xlsx
@@ -828,7 +828,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1227,10 +1227,13 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
       <c r="N14" s="14"/>
       <c r="O14" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P14" s="5"/>
     </row>
@@ -1567,7 +1570,7 @@
       </c>
       <c r="E33" s="20">
         <f>SUM(E2:E32)</f>
-        <v>170.5</v>
+        <v>182.5</v>
       </c>
       <c r="F33" s="20">
         <f>SUM(F2:F32)</f>
@@ -1607,7 +1610,7 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" si="0"/>
-        <v>4894.16</v>
+        <v>4906.16</v>
       </c>
       <c r="P33" s="5"/>
     </row>
@@ -1630,7 +1633,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3">
         <f>O33-2200</f>
-        <v>2694.16</v>
+        <v>2706.16</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
@@ -1639,7 +1642,7 @@
       </c>
       <c r="O35" s="1">
         <f>O34-550</f>
-        <v>2144.16</v>
+        <v>2156.16</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -1648,7 +1651,7 @@
       </c>
       <c r="O36" s="1">
         <f>O35-1100</f>
-        <v>1044.1599999999999</v>
+        <v>1056.1599999999999</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/3月花费账单.xlsx
+++ b/平时花费/3月花费账单.xlsx
@@ -51,6 +51,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="K15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+床单</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -162,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +212,13 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -1230,10 +1263,16 @@
       <c r="E14" s="1">
         <v>12</v>
       </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
       <c r="N14" s="14"/>
       <c r="O14" s="16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P14" s="5"/>
     </row>
@@ -1244,10 +1283,19 @@
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
+        <v>18.600000000000001</v>
+      </c>
       <c r="N15" s="14"/>
       <c r="O15" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32.1</v>
       </c>
       <c r="P15" s="5"/>
     </row>
@@ -1258,10 +1306,25 @@
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
       <c r="N16" s="14"/>
       <c r="O16" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="P16" s="5"/>
     </row>
@@ -1272,10 +1335,19 @@
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
       <c r="N17" s="14"/>
       <c r="O17" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="P17" s="5"/>
     </row>
@@ -1562,23 +1634,23 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20">
         <f>SUM(C2:C32)</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D33" s="20">
         <f>SUM(D2:D32)</f>
-        <v>28.16</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="E33" s="20">
         <f>SUM(E2:E32)</f>
-        <v>182.5</v>
+        <v>216.5</v>
       </c>
       <c r="F33" s="20">
         <f>SUM(F2:F32)</f>
-        <v>24.5</v>
+        <v>36</v>
       </c>
       <c r="G33" s="20">
         <f t="shared" ref="G33:N33" si="1">SUM(G2:G32)</f>
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" si="1"/>
@@ -1594,7 +1666,7 @@
       </c>
       <c r="K33" s="20">
         <f t="shared" si="1"/>
-        <v>598</v>
+        <v>616.6</v>
       </c>
       <c r="L33" s="20">
         <f t="shared" si="1"/>
@@ -1610,7 +1682,7 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" si="0"/>
-        <v>4906.16</v>
+        <v>5018.76</v>
       </c>
       <c r="P33" s="5"/>
     </row>
@@ -1633,7 +1705,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3">
         <f>O33-2200</f>
-        <v>2706.16</v>
+        <v>2818.76</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
@@ -1642,7 +1714,7 @@
       </c>
       <c r="O35" s="1">
         <f>O34-550</f>
-        <v>2156.16</v>
+        <v>2268.7600000000002</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -1651,7 +1723,7 @@
       </c>
       <c r="O36" s="1">
         <f>O35-1100</f>
-        <v>1056.1599999999999</v>
+        <v>1168.7600000000002</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/3月花费账单.xlsx
+++ b/平时花费/3月花费账单.xlsx
@@ -74,6 +74,21 @@
           </rPr>
           <t xml:space="preserve">
 床单</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>补墙</t>
         </r>
       </text>
     </comment>
@@ -861,7 +876,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1344,10 +1359,19 @@
       <c r="E17" s="1">
         <v>15</v>
       </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1">
+        <v>60</v>
+      </c>
       <c r="N17" s="14"/>
       <c r="O17" s="16">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>100.5</v>
       </c>
       <c r="P17" s="5"/>
     </row>
@@ -1358,10 +1382,13 @@
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
       <c r="N18" s="14"/>
       <c r="O18" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P18" s="5"/>
     </row>
@@ -1634,7 +1661,7 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20">
         <f>SUM(C2:C32)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D33" s="20">
         <f>SUM(D2:D32)</f>
@@ -1646,11 +1673,11 @@
       </c>
       <c r="F33" s="20">
         <f>SUM(F2:F32)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" s="20">
         <f t="shared" ref="G33:N33" si="1">SUM(G2:G32)</f>
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" si="1"/>
@@ -1670,7 +1697,7 @@
       </c>
       <c r="L33" s="20">
         <f t="shared" si="1"/>
-        <v>3850</v>
+        <v>3910</v>
       </c>
       <c r="M33" s="20">
         <f t="shared" si="1"/>
@@ -1682,7 +1709,7 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" si="0"/>
-        <v>5018.76</v>
+        <v>5100.76</v>
       </c>
       <c r="P33" s="5"/>
     </row>
@@ -1705,7 +1732,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3">
         <f>O33-2200</f>
-        <v>2818.76</v>
+        <v>2900.76</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
@@ -1714,7 +1741,7 @@
       </c>
       <c r="O35" s="1">
         <f>O34-550</f>
-        <v>2268.7600000000002</v>
+        <v>2350.7600000000002</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -1723,7 +1750,7 @@
       </c>
       <c r="O36" s="1">
         <f>O35-1100</f>
-        <v>1168.7600000000002</v>
+        <v>1250.7600000000002</v>
       </c>
     </row>
   </sheetData>

--- a/平时花费/3月花费账单.xlsx
+++ b/平时花费/3月花费账单.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L5" authorId="0">
+    <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="K13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K15" authorId="0">
+    <comment ref="K15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L17" authorId="0">
+    <comment ref="L17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -628,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,9 +661,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -696,6 +713,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -875,23 +909,23 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -938,7 +972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>41334</v>
       </c>
@@ -967,7 +1001,7 @@
       </c>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>41335</v>
       </c>
@@ -996,7 +1030,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>41336</v>
       </c>
@@ -1022,7 +1056,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>41337</v>
       </c>
@@ -1054,7 +1088,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>41338</v>
       </c>
@@ -1071,7 +1105,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>41339</v>
       </c>
@@ -1100,7 +1134,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>41340</v>
       </c>
@@ -1129,7 +1163,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>41341</v>
       </c>
@@ -1155,7 +1189,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>41342</v>
       </c>
@@ -1184,7 +1218,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>41343</v>
       </c>
@@ -1216,7 +1250,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>41344</v>
       </c>
@@ -1242,7 +1276,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>41345</v>
       </c>
@@ -1262,7 +1296,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>41346</v>
       </c>
@@ -1291,7 +1325,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>41347</v>
       </c>
@@ -1314,7 +1348,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>41348</v>
       </c>
@@ -1343,7 +1377,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>41349</v>
       </c>
@@ -1375,7 +1409,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>41350</v>
       </c>
@@ -1392,7 +1426,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>41351</v>
       </c>
@@ -1406,7 +1440,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>41352</v>
       </c>
@@ -1420,7 +1454,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>41353</v>
       </c>
@@ -1434,7 +1468,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>41354</v>
       </c>
@@ -1448,7 +1482,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>41355</v>
       </c>
@@ -1462,7 +1496,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>41356</v>
       </c>
@@ -1476,7 +1510,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>41357</v>
       </c>
@@ -1490,7 +1524,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>41358</v>
       </c>
@@ -1504,7 +1538,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>41359</v>
       </c>
@@ -1529,7 +1563,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>41360</v>
       </c>
@@ -1554,7 +1588,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>41361</v>
       </c>
@@ -1579,7 +1613,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>41362</v>
       </c>
@@ -1604,7 +1638,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>41363</v>
       </c>
@@ -1629,7 +1663,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>41364</v>
       </c>
@@ -1654,7 +1688,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>20</v>
       </c>
@@ -1713,7 +1747,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1769,7 @@
         <v>2900.76</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
@@ -1744,7 +1778,7 @@
         <v>2350.7600000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
